--- a/pivotTables14.xlsx
+++ b/pivotTables14.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gove\atlas-addin\debugging\js_bug_demo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A86837C-FDC0-42E0-879E-58865E4806A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B7888DC-3508-42AF-853B-5B68ADF47DCF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30675" yWindow="-1005" windowWidth="27870" windowHeight="15120" activeTab="1" xr2:uid="{0457C07C-A94B-4B63-BF2D-B38B70AA9177}"/>
+    <workbookView xWindow="32610" yWindow="-8835" windowWidth="27870" windowHeight="15120" activeTab="1" xr2:uid="{0457C07C-A94B-4B63-BF2D-B38B70AA9177}"/>
   </bookViews>
   <sheets>
     <sheet name="Gas Data" sheetId="3" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId3"/>
+    <pivotCache cacheId="1" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -9021,7 +9021,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FF1C4CF4-6F31-42B3-8F38-32279614DD6E}" name="Local" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FF1C4CF4-6F31-42B3-8F38-32279614DD6E}" name="Local" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="B3:G10" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="5">
     <pivotField axis="axisRow" showAll="0">
@@ -9409,6 +9409,24 @@
 </a:theme>
 </file>
 
+<file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
+<wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
+  <wetp:taskpane dockstate="right" visibility="0" width="350" row="6">
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </wetp:taskpane>
+</wetp:taskpanes>
+</file>
+
+<file path=xl/webextensions/webextension1.xml><?xml version="1.0" encoding="utf-8"?>
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{70DFF2C7-27CB-41B7-8F28-18DEDD33A3E8}">
+  <we:reference id="1f48a684-2908-40dc-a8a9-80bccb051869" version="1.0.0.0" store="\\GOVE\Users\Gove\atlas_manifest" storeType="Filesystem"/>
+  <we:alternateReferences/>
+  <we:properties/>
+  <we:bindings/>
+  <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</we:webextension>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89E85FEC-2F4D-47AB-AA0D-E134C69E67BF}">
   <dimension ref="B2:F1242"/>
